--- a/comp130-schedule-9-10-2023.xlsx
+++ b/comp130-schedule-9-10-2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jmac\Google Drive\courses\intro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B75B6DB1-8C43-4E72-BEE3-BE6A9D38917F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C022DA53-81A9-454B-B633-0969E79C4207}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="138">
   <si>
     <t>Mon</t>
   </si>
@@ -590,13 +590,16 @@
     <t>5.1-5.5</t>
   </si>
   <si>
-    <t>5.6-5.7</t>
-  </si>
-  <si>
     <t>chained and nested conditionals</t>
   </si>
   <si>
     <t>review of conditionals</t>
+  </si>
+  <si>
+    <t>review of fruitful functions I</t>
+  </si>
+  <si>
+    <t>5.6-5.7; SSG8-10</t>
   </si>
 </sst>
 </file>
@@ -855,7 +858,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -962,6 +965,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1246,10 +1252,10 @@
   <dimension ref="A1:Q47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F11" sqref="F11"/>
+      <selection pane="bottomRight" activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1498,10 +1504,10 @@
       </c>
       <c r="E9" s="22"/>
       <c r="F9" s="14" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G9" s="15" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="H9" s="14" t="s">
         <v>77</v>
@@ -1527,9 +1533,11 @@
       </c>
       <c r="E10" s="22"/>
       <c r="F10" s="14" t="s">
-        <v>136</v>
-      </c>
-      <c r="G10" s="15"/>
+        <v>135</v>
+      </c>
+      <c r="G10" s="41" t="s">
+        <v>22</v>
+      </c>
       <c r="H10" s="14"/>
       <c r="I10" s="12"/>
       <c r="Q10" s="39"/>
@@ -1607,8 +1615,12 @@
         <v>12</v>
       </c>
       <c r="E13" s="22"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="15"/>
+      <c r="F13" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="G13" s="41" t="s">
+        <v>22</v>
+      </c>
       <c r="H13" s="14"/>
       <c r="I13" s="12"/>
     </row>
